--- a/data/trans_bre/IP17-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP17-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-33,14%</t>
+          <t>-22,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>-11,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>-8,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-19,66%</t>
+          <t>-5,91%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,94; -0,87</t>
+          <t>-10,41; 1,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 6,05</t>
+          <t>-8,63; 3,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 6,99</t>
+          <t>-6,93; 4,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 1,45</t>
+          <t>-7,63; 5,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,38; -5,4</t>
+          <t>-44,18; 7,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 57,87</t>
+          <t>-35,24; 21,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 56,86</t>
+          <t>-33,47; 27,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,67; 12,02</t>
+          <t>-34,86; 38,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-22,12%</t>
+          <t>-33,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,39%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-8,52%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,91%</t>
+          <t>-19,66%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 1,45</t>
+          <t>-10,94; -0,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 3,67</t>
+          <t>-3,14; 6,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 4,18</t>
+          <t>-3,23; 6,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 5,79</t>
+          <t>-7,74; 1,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 7,9</t>
+          <t>-52,38; -5,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,24; 21,37</t>
+          <t>-21,47; 57,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 27,7</t>
+          <t>-20,4; 56,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,86; 38,0</t>
+          <t>-43,67; 12,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP17-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP17-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>-2,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,35%</t>
+          <t>-5,76%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 10,0</t>
+          <t>-2,24; 19,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 9,19</t>
+          <t>-7,98; 10,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 8,46</t>
+          <t>-9,17; 8,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 6,41</t>
+          <t>-14,0; 10,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 40,38</t>
+          <t>-5,63; 67,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 30,25</t>
+          <t>-17,14; 29,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 32,15</t>
+          <t>-23,4; 30,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,48; 32,13</t>
+          <t>-39,81; 45,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-22,12%</t>
+          <t>-18,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,39%</t>
+          <t>-6,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,52%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,91%</t>
+          <t>-5,37%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 1,45</t>
+          <t>-9,9; 1,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 3,67</t>
+          <t>-7,93; 4,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 4,18</t>
+          <t>-4,29; 7,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 5,79</t>
+          <t>-8,61; 5,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 7,9</t>
+          <t>-36,46; 6,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,24; 21,37</t>
+          <t>-29,09; 19,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 27,7</t>
+          <t>-19,01; 47,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,86; 38,0</t>
+          <t>-38,6; 37,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-33,14%</t>
+          <t>-20,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>37,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>-9,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-19,66%</t>
+          <t>-0,08%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,94; -0,87</t>
+          <t>-11,07; 3,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 6,05</t>
+          <t>-1,78; 11,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 6,99</t>
+          <t>-8,99; 4,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 1,45</t>
+          <t>-6,31; 7,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,38; -5,4</t>
+          <t>-48,11; 23,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 57,87</t>
+          <t>-13,56; 119,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 56,86</t>
+          <t>-37,21; 28,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,67; 12,02</t>
+          <t>-30,62; 53,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,4%</t>
+          <t>-35,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>-13,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-12,15%</t>
+          <t>-31,96%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 0,3</t>
+          <t>-10,91; -0,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,81</t>
+          <t>-8,21; 3,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,43</t>
+          <t>-3,03; 8,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 0,97</t>
+          <t>-9,69; 0,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 1,41</t>
+          <t>-59,31; -3,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 18,17</t>
+          <t>-48,39; 30,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 25,54</t>
+          <t>-23,39; 112,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 6,56</t>
+          <t>-56,51; 5,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-12,4%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-12,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,22; 0,51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 3,76</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 4,06</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 1,3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-25,85; 2,42</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-13,72; 17,68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-13,99; 22,47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-30,31; 8,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP17-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP17-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 19,29</t>
+          <t>-1,62; 17,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 10,76</t>
+          <t>-7,82; 10,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 8,84</t>
+          <t>-10,43; 8,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 10,48</t>
+          <t>-12,71; 11,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 67,33</t>
+          <t>-4,17; 67,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 29,51</t>
+          <t>-17,78; 29,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 30,96</t>
+          <t>-26,07; 28,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 45,27</t>
+          <t>-37,15; 47,51</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 1,35</t>
+          <t>-10,41; 1,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 4,33</t>
+          <t>-8,47; 4,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 7,62</t>
+          <t>-5,05; 7,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 5,67</t>
+          <t>-8,45; 5,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 6,98</t>
+          <t>-38,01; 5,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,09; 19,69</t>
+          <t>-29,72; 18,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 47,63</t>
+          <t>-22,63; 43,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,6; 37,82</t>
+          <t>-38,85; 34,57</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 3,34</t>
+          <t>-11,95; 4,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 11,49</t>
+          <t>-2,16; 11,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 4,59</t>
+          <t>-8,35; 5,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 7,31</t>
+          <t>-6,67; 8,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,11; 23,07</t>
+          <t>-49,74; 28,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 119,27</t>
+          <t>-15,85; 119,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 28,91</t>
+          <t>-37,6; 32,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,62; 53,98</t>
+          <t>-32,87; 61,19</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,91; -0,7</t>
+          <t>-11,54; 0,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 3,64</t>
+          <t>-8,08; 3,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 8,98</t>
+          <t>-3,09; 8,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 0,44</t>
+          <t>-9,82; -0,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,31; -3,47</t>
+          <t>-59,25; 1,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 30,23</t>
+          <t>-46,15; 32,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 112,53</t>
+          <t>-22,61; 103,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,51; 5,12</t>
+          <t>-56,92; 0,36</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 0,51</t>
+          <t>-6,45; 0,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 3,76</t>
+          <t>-2,98; 4,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 4,06</t>
+          <t>-2,58; 4,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 1,3</t>
+          <t>-5,34; 1,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 2,42</t>
+          <t>-26,07; 3,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 17,68</t>
+          <t>-12,47; 19,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 22,47</t>
+          <t>-12,18; 24,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 8,07</t>
+          <t>-28,46; 9,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP17-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP17-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,76%</t>
+          <t>-5,62%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 17,94</t>
+          <t>-3,21; 18,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 10,13</t>
+          <t>-7,88; 10,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 8,24</t>
+          <t>-11,41; 7,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 11,2</t>
+          <t>-13,27; 10,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 67,69</t>
+          <t>-8,28; 63,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 29,2</t>
+          <t>-17,66; 30,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 28,21</t>
+          <t>-28,75; 26,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 47,51</t>
+          <t>-36,96; 41,73</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,37%</t>
+          <t>-4,19%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 1,19</t>
+          <t>-10,58; 1,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 4,1</t>
+          <t>-7,76; 5,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 7,12</t>
+          <t>-4,44; 7,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 5,47</t>
+          <t>-7,91; 5,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 5,75</t>
+          <t>-38,92; 7,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 18,78</t>
+          <t>-28,16; 23,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 43,91</t>
+          <t>-20,12; 46,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 34,57</t>
+          <t>-37,36; 37,33</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 4,17</t>
+          <t>-11,14; 3,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 11,44</t>
+          <t>-1,85; 11,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 5,19</t>
+          <t>-8,78; 5,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 8,04</t>
+          <t>-6,97; 7,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 28,02</t>
+          <t>-49,12; 19,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 119,15</t>
+          <t>-12,13; 123,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 32,88</t>
+          <t>-36,97; 32,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,87; 61,19</t>
+          <t>-32,62; 54,02</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-31,96%</t>
+          <t>-36,07%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 0,1</t>
+          <t>-10,51; 0,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 3,55</t>
+          <t>-8,47; 3,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 8,19</t>
+          <t>-2,49; 8,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,82; -0,2</t>
+          <t>-10,32; -0,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,25; 1,14</t>
+          <t>-56,35; 1,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,15; 32,33</t>
+          <t>-49,17; 32,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 103,22</t>
+          <t>-20,19; 102,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,92; 0,36</t>
+          <t>-62,63; -0,59</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-12,15%</t>
+          <t>-12,7%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 0,63</t>
+          <t>-6,45; 0,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 4,03</t>
+          <t>-3,79; 3,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,43</t>
+          <t>-2,61; 4,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 1,52</t>
+          <t>-6,25; 1,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 3,36</t>
+          <t>-26,75; 1,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 19,26</t>
+          <t>-15,18; 18,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 24,85</t>
+          <t>-12,18; 25,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 9,37</t>
+          <t>-32,34; 8,15</t>
         </is>
       </c>
     </row>
